--- a/metabolomics/Metabolite concs - CC - Summer.xlsx
+++ b/metabolomics/Metabolite concs - CC - Summer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewregan/Documents/Research projects/Microbiome projects/Carb project/Aug 2021 onwards/Metabolomics data for Edna/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/metabolomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9566F8FC-2915-5247-8971-CBEE5B00702D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9566F8FC-2915-5247-8971-CBEE5B00702D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0CD9F97-D84A-423F-959A-AE331BF4826E}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="840" windowWidth="17380" windowHeight="14700" activeTab="2" xr2:uid="{C4E29400-BF53-4F45-A01A-2DFBD028B7B7}"/>
+    <workbookView xWindow="13284" yWindow="24" windowWidth="9744" windowHeight="12156" firstSheet="1" activeTab="1" xr2:uid="{C4E29400-BF53-4F45-A01A-2DFBD028B7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Inulin - Summer - NoABX" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -254,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -650,12 +649,12 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
@@ -696,7 +695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -740,7 +739,7 @@
         <v>1.0555000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -784,7 +783,7 @@
         <v>1.0327</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -828,7 +827,7 @@
         <v>1.0327</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -872,7 +871,7 @@
         <v>1.3545</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -916,7 +915,7 @@
         <v>1.1313</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -960,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>34.314799999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1063,13 +1062,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99618595-E943-3743-8663-4FCFA5F966D9}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>5.0635000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>6.8620999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1332,7 +1331,7 @@
         <v>5.0635000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>30.0397</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1578,7 +1577,7 @@
         <v>1.2503</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1667,7 +1666,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1765,13 +1764,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4C90AE-C487-8742-BA97-2CFD0970356D}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
@@ -1851,7 +1850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>0.2288</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>0.2288</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>0.2288</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>0.2288</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
@@ -2057,7 +2056,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" s="8">
         <v>2</v>
       </c>
@@ -2094,13 +2093,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B56AF6-C5CA-8642-A852-D7167F5833F1}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
@@ -2180,7 +2179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>1.1575</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>4.1829000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>1.0325</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
@@ -2426,7 +2425,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" s="8">
         <v>2</v>
       </c>
